--- a/Documents/Excel для диаграммы Ганта.xlsx
+++ b/Documents/Excel для диаграммы Ганта.xlsx
@@ -304,24 +304,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="103704448"/>
-        <c:axId val="103705984"/>
+        <c:axId val="110623360"/>
+        <c:axId val="111038848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103704448"/>
+        <c:axId val="110623360"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103705984"/>
+        <c:crossAx val="111038848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103705984"/>
+        <c:axId val="111038848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -329,7 +329,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103704448"/>
+        <c:crossAx val="110623360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -338,7 +338,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -349,15 +349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -667,7 +667,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
